--- a/pieces/mystiqueElectro.xlsx
+++ b/pieces/mystiqueElectro.xlsx
@@ -500,9 +500,9 @@
   <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M40" activeCellId="0" sqref="M40"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="23" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>512</v>
